--- a/biology/Botanique/Parc_marin_(Helsinki)/Parc_marin_(Helsinki).xlsx
+++ b/biology/Botanique/Parc_marin_(Helsinki)/Parc_marin_(Helsinki).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Parc marin (en finnois : Meripuisto), est un parc de jeux du quartier de Ullanlinna  à Helsinki en Finlande[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Parc marin (en finnois : Meripuisto), est un parc de jeux du quartier de Ullanlinna  à Helsinki en Finlande,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Meripuisto est d’une superficie de 2,27 hectares. Le parc est divisé en zones fonctionnelles. Des pommiers à feuilles de prunier et des pommiers pourpres ont été plantés dans le coin du parc attenant au Kaivopuisto.
 L'ancienne marina a été transformée en une plage de sable pour le parc. 
